--- a/spreadsheets/Volibear.xlsx
+++ b/spreadsheets/Volibear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E65844-FEC5-47EE-9ED8-F6CF594BEDCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB491E89-976F-42D5-B78E-F38551C56AA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34065" yWindow="2775" windowWidth="21525" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m\-d"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,10 +524,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1959,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2201,8 +2198,8 @@
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="10">
-        <v>43531</v>
+      <c r="B19" s="11">
+        <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>69</v>
@@ -2303,7 +2300,7 @@
       <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2336,7 +2333,7 @@
       <c r="B31" s="8">
         <v>3</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>119</v>
       </c>
     </row>
